--- a/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Mat</t>
   </si>
@@ -71,33 +71,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
   </si>
 </sst>
 </file>
@@ -644,16 +617,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.13</v>
+      </c>
+      <c r="H3">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -770,7 +746,7 @@
         <v>61.29</v>
       </c>
       <c r="H3">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -806,7 +782,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -839,75 +815,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920278</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920281</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,69 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>JORGE HUMBERTO</t>
+  </si>
+  <si>
+    <t>AMANDA MICHEL</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>JESUS HUMBERTO</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
   </si>
 </sst>
 </file>
@@ -500,10 +563,10 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>19</v>
@@ -512,7 +575,7 @@
         <v>61.29</v>
       </c>
       <c r="H3">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -526,10 +589,10 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -538,7 +601,7 @@
         <v>61.9</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +657,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13.89</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -617,19 +683,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>16.13</v>
+        <v>41.94</v>
       </c>
       <c r="H3">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -643,16 +709,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.86</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +789,7 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -734,19 +803,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>61.29</v>
+        <v>64.52</v>
       </c>
       <c r="H3">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -760,16 +829,16 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>61.9</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -782,7 +851,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +884,167 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920075</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920062</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920278</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Mat</t>
   </si>
@@ -73,27 +73,72 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>AVENDAÑO</t>
+  </si>
+  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
     <t>ROMERO</t>
   </si>
   <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
     <t>CORONA</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>TELLEZ</t>
   </si>
   <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
@@ -106,31 +151,52 @@
     <t>FLORES</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>OFICIAL</t>
   </si>
   <si>
+    <t>KARLA JOVANA</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>ALISSON FERNANDA</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>AXEL JESUS</t>
+  </si>
+  <si>
     <t>JORGE HUMBERTO</t>
   </si>
   <si>
     <t>AMANDA MICHEL</t>
   </si>
   <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
     <t>GUADALUPE</t>
   </si>
   <si>
     <t>JESUS HUMBERTO</t>
-  </si>
-  <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
   </si>
   <si>
     <t>MARISOL</t>
@@ -851,7 +917,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -886,16 +952,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920075</v>
+        <v>20330051920359</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -909,16 +975,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920062</v>
+        <v>20330051920091</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -932,22 +998,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920265</v>
+        <v>20330051920191</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -955,22 +1021,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920268</v>
+        <v>20330051920202</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -978,22 +1044,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920274</v>
+        <v>20330051920218</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1001,16 +1067,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920278</v>
+        <v>20330051920274</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1024,16 +1090,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920281</v>
+        <v>20330051920278</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1043,6 +1109,213 @@
       </c>
       <c r="G8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920041</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920075</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920062</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920265</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920281</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Mat</t>
   </si>
@@ -73,60 +73,54 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>AVENDAÑO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
@@ -136,27 +130,18 @@
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>KARLA JOVANA</t>
-  </si>
-  <si>
     <t>ANGEL</t>
   </si>
   <si>
@@ -178,9 +163,6 @@
     <t>ERNESTO</t>
   </si>
   <si>
-    <t>AXEL JESUS</t>
-  </si>
-  <si>
     <t>JORGE HUMBERTO</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
   </si>
   <si>
     <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
   </si>
   <si>
     <t>JESUS HUMBERTO</t>
@@ -723,19 +702,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>13.89</v>
+        <v>19.44</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -775,19 +754,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>42.86</v>
+        <v>47.62</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +834,7 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -917,7 +896,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,16 +931,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920359</v>
+        <v>20330051920091</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -975,22 +954,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920091</v>
+        <v>20330051920191</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -998,16 +977,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920191</v>
+        <v>20330051920202</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1021,16 +1000,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920202</v>
+        <v>20330051920218</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1044,22 +1023,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920218</v>
+        <v>20330051920274</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1067,16 +1046,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920274</v>
+        <v>20330051920278</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1090,16 +1069,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920278</v>
+        <v>20330051920282</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1113,39 +1092,39 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920282</v>
+        <v>20330051920075</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920041</v>
+        <v>20330051920062</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1159,22 +1138,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920075</v>
+        <v>20330051920201</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1182,22 +1161,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920062</v>
+        <v>20330051920210</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1205,22 +1184,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920201</v>
+        <v>20330051920268</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1228,93 +1207,24 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920210</v>
+        <v>20330051920281</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920265</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920268</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920281</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Mat</t>
   </si>
@@ -71,114 +71,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>ALISSON FERNANDA</t>
-  </si>
-  <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>JORGE HUMBERTO</t>
-  </si>
-  <si>
-    <t>AMANDA MICHEL</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>JESUS HUMBERTO</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
   </si>
 </sst>
 </file>
@@ -582,19 +474,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -608,19 +500,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>61.29</v>
+        <v>96.77</v>
       </c>
       <c r="H3">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -634,19 +526,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>61.9</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -702,19 +594,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
         <v>7</v>
-      </c>
-      <c r="G2">
-        <v>19.44</v>
-      </c>
-      <c r="H2">
-        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -728,19 +620,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>41.94</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -754,19 +646,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>47.62</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -822,19 +714,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -848,19 +740,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>64.52</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -874,19 +766,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -929,305 +821,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920091</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920274</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920278</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920282</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920075</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920062</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920268</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920281</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
